--- a/Administrations.xlsx
+++ b/Administrations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtuyy\Documents\Writing\Peregrine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Documents\Writing\Peregrine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF8CB7E-C577-4839-BE58-CFB06C638BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96CC22-0A8B-4468-BCFD-27D4D06A356F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>Civil Development</t>
   </si>
   <si>
@@ -112,13 +109,16 @@
   </si>
   <si>
     <t>Montreal</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +129,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,21 +455,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,107 +483,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
